--- a/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.1/版本Bug和特性计划及评审表v5.2.1_马丁组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.2.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="10" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$V$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.1 新特性|Fix Bug'!$A$1:$V$20</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>PM-308</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>分配房源到个人</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -302,6 +298,16 @@
   <si>
     <t>张勋</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-475</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-1978</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1387,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1483,51 +1489,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>76</v>
       </c>
       <c r="H2" s="39">
         <v>43100</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="39">
         <v>43100</v>
       </c>
       <c r="K2" s="38"/>
       <c r="L2" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>80</v>
       </c>
       <c r="O2" s="47"/>
       <c r="P2" s="39"/>
-      <c r="Q2" s="47"/>
+      <c r="Q2" s="47" t="s">
+        <v>83</v>
+      </c>
       <c r="R2" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="77">
-        <v>5119</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="S2" s="77"/>
       <c r="T2" s="44"/>
       <c r="U2" s="52"/>
       <c r="V2" s="53"/>
@@ -1538,46 +1544,50 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="G3" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="39">
         <v>43100</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="39">
         <v>43100</v>
       </c>
       <c r="K3" s="38"/>
       <c r="L3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="M3" s="38" t="s">
-        <v>79</v>
-      </c>
       <c r="N3" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O3" s="47"/>
       <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="44"/>
+      <c r="Q3" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="77" t="s">
+        <v>82</v>
+      </c>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
       <c r="U3" s="52"/>
@@ -5492,8 +5502,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=5119"/>
-    <hyperlink ref="R2" r:id="rId2"/>
+    <hyperlink ref="R2" r:id="rId1"/>
+    <hyperlink ref="R3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
